--- a/Files/test.xlsx
+++ b/Files/test.xlsx
@@ -6,10 +6,9 @@
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="11385" windowWidth="21600" xWindow="3060" yWindow="4380"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="New Worksheet number 1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="New Worksheet number 2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="New Worksheet number 3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="New Worksheet number 1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="New Worksheet number 2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="New Worksheet number 3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="181029" fullCalcOnLoad="1"/>
@@ -81,12 +80,11 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="1" fillId="0" fontId="0" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="2" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Обычный" xfId="0"/>
@@ -430,226 +428,6 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J10"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col customWidth="1" max="1" min="1" width="15.140625"/>
-    <col customWidth="1" max="2" min="2" width="15.7109375"/>
-    <col customWidth="1" max="3" min="3" width="16.5703125"/>
-    <col customWidth="1" max="5" min="5" width="30"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="3" t="inlineStr">
-        <is>
-          <t>Таблица 1</t>
-        </is>
-      </c>
-      <c r="B1" s="3" t="n"/>
-      <c r="C1" s="3" t="n"/>
-      <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="n"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="inlineStr">
-        <is>
-          <t>Стул</t>
-        </is>
-      </c>
-      <c r="C2" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">             Шкав</t>
-        </is>
-      </c>
-      <c r="D2" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="E2" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">         Мошина-победитель       </t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B3" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="C3" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="D3" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1" t="inlineStr">
-        <is>
-          <t>10тбайт/c</t>
-        </is>
-      </c>
-      <c r="H3" s="1" t="inlineStr">
-        <is>
-          <t>a</t>
-        </is>
-      </c>
-      <c r="I3" s="1" t="inlineStr">
-        <is>
-          <t>v</t>
-        </is>
-      </c>
-      <c r="J3" s="1" t="inlineStr">
-        <is>
-          <t>c</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>Точка.запитая</t>
-        </is>
-      </c>
-      <c r="B4" s="1" t="inlineStr">
-        <is>
-          <t>наутбук</t>
-        </is>
-      </c>
-      <c r="C4" s="1" t="inlineStr">
-        <is>
-          <t>телифон/55</t>
-        </is>
-      </c>
-      <c r="D4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="E4" s="1" t="inlineStr">
-        <is>
-          <t>2 Англ</t>
-        </is>
-      </c>
-      <c r="H4" s="1" t="inlineStr">
-        <is>
-          <t>a</t>
-        </is>
-      </c>
-      <c r="I4" s="1" t="inlineStr">
-        <is>
-          <t>a</t>
-        </is>
-      </c>
-      <c r="J4" s="1" t="inlineStr">
-        <is>
-          <t>c</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>10 Мбар</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="inlineStr">
-        <is>
-          <t>Пбайт тест</t>
-        </is>
-      </c>
-      <c r="C5" s="1" t="inlineStr">
-        <is>
-          <t>телифон/55</t>
-        </is>
-      </c>
-      <c r="D5" s="1" t="n"/>
-      <c r="E5" s="1" t="inlineStr">
-        <is>
-          <t>2 Кбит</t>
-        </is>
-      </c>
-      <c r="H5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="I5" s="1" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="J5" s="1" t="inlineStr">
-        <is>
-          <t>a</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n"/>
-      <c r="B6" s="1" t="inlineStr">
-        <is>
-          <t>тест Гбит</t>
-        </is>
-      </c>
-      <c r="C6" s="1" t="inlineStr">
-        <is>
-          <t>телифон/55</t>
-        </is>
-      </c>
-      <c r="D6" s="1" t="n"/>
-      <c r="E6" s="1" t="n"/>
-    </row>
-    <row r="9">
-      <c r="G9" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H9" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="I9" s="1" t="inlineStr">
-        <is>
-          <t>asdv</t>
-        </is>
-      </c>
-      <c r="J9" s="1" t="n"/>
-    </row>
-    <row r="10">
-      <c r="G10" s="1" t="inlineStr">
-        <is>
-          <t>asd</t>
-        </is>
-      </c>
-      <c r="H10" s="1" t="inlineStr">
-        <is>
-          <t>adada</t>
-        </is>
-      </c>
-      <c r="I10" s="1" t="inlineStr">
-        <is>
-          <t>adada</t>
-        </is>
-      </c>
-      <c r="J10" s="1" t="inlineStr">
-        <is>
-          <t>adadad</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -666,15 +444,15 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="4" t="inlineStr">
+      <c r="A1" s="3" t="inlineStr">
         <is>
           <t>Таблица 1</t>
         </is>
       </c>
-      <c r="B1" s="4" t="n"/>
-      <c r="C1" s="4" t="n"/>
-      <c r="D1" s="4" t="n"/>
-      <c r="E1" s="4" t="n"/>
+      <c r="B1" s="3" t="n"/>
+      <c r="C1" s="3" t="n"/>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -786,7 +564,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -859,7 +637,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
